--- a/data/trans_dic/IP16B98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Estudios-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -719,17 +719,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,4; 100,0</t>
+          <t>80,24; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,33; 100,0</t>
+          <t>79,14; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,37; 100,0</t>
+          <t>75,69; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,19; 100,0</t>
+          <t>84,02; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,33; 100,0</t>
+          <t>90,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,03; 100,0</t>
+          <t>31,08; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,78; 100,0</t>
+          <t>26,66; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,17 +814,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,88; 100,0</t>
+          <t>36,24; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 100,0</t>
+          <t>38,02; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,21; 100,0</t>
+          <t>53,75; 100,0</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,8; 100,0</t>
+          <t>73,76; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,96; 100,0</t>
+          <t>79,88; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,97; 100,0</t>
+          <t>75,62; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,42; 100,0</t>
+          <t>84,35; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,74; 98,26</t>
+          <t>81,64; 98,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,63; 98,8</t>
+          <t>87,88; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B98-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -644,17 +644,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>69,43; 100</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 100</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>69,43; 100</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>69,43; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -681,22 +681,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>94,18%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>95,28%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>95,82%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>94,18%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,24; 100,0</t>
+          <t>70,29; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,14; 100,0</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,69; 100,0</t>
+          <t>75,73; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>77,6; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,02; 100,0</t>
+          <t>83,4; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,61; 100,0</t>
+          <t>87,64; 100,0</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>79,12%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>78,42%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>82,44%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>79,12%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>85,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,08; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,66; 100,0</t>
+          <t>35,65; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,43; 100,0</t>
+          <t>19,62; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,24; 100,0</t>
+          <t>39,7; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,02; 100,0</t>
+          <t>46,15; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,75; 100,0</t>
+          <t>54,49; 100,0</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>92,24%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>93,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>92,8%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>97,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,76; 100,0</t>
+          <t>74,62; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,88; 100,0</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,62; 100,0</t>
+          <t>75,22; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,35; 100,0</t>
+          <t>80,44; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,64; 98,28</t>
+          <t>82,25; 98,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,88; 100,0</t>
+          <t>87,49; 98,77</t>
         </is>
       </c>
     </row>
